--- a/outputs-HGR-r202-archive/p__Actinobacteriota.xlsx
+++ b/outputs-HGR-r202-archive/p__Actinobacteriota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F262"/>
+  <dimension ref="A1:F218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,43 +469,43 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1000.fa</t>
+          <t>even_MAG-GUT1016.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9967491053398592</v>
+        <v>0.01734939591612894</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00325089466014088</v>
+        <v>0.9826506040838711</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9967491053398592</v>
+        <v>0.9826506040838711</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1001.fa</t>
+          <t>even_MAG-GUT103.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.991744949041216</v>
+        <v>0.9567502764273712</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008255050958784023</v>
+        <v>0.04324972357262879</v>
       </c>
       <c r="D3" t="n">
-        <v>0.991744949041216</v>
+        <v>0.9567502764273712</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -521,17 +521,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1012.fa</t>
+          <t>even_MAG-GUT1054.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8349997450875669</v>
+        <v>0.9868650267735504</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1650002549124331</v>
+        <v>0.01313497322644962</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8349997450875669</v>
+        <v>0.9868650267735504</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -547,43 +547,43 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1016.fa</t>
+          <t>even_MAG-GUT1065.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01734939591612894</v>
+        <v>0.9881421613088107</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9826506040838711</v>
+        <v>0.01185783869118929</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9826506040838711</v>
+        <v>0.9881421613088107</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1026.fa</t>
+          <t>even_MAG-GUT1089.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.982130876469715</v>
+        <v>0.9914635157815327</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01786912353028504</v>
+        <v>0.008536484218467316</v>
       </c>
       <c r="D6" t="n">
-        <v>0.982130876469715</v>
+        <v>0.9914635157815327</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -599,43 +599,43 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1033.fa</t>
+          <t>even_MAG-GUT10928.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9913457616355026</v>
+        <v>0.001488773949114619</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008654238364497455</v>
+        <v>0.9985112260508854</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9913457616355026</v>
+        <v>0.9985112260508854</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10488.fa</t>
+          <t>even_MAG-GUT1131.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5278940017854151</v>
+        <v>0.9741031127976014</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4721059982145849</v>
+        <v>0.02589688720239853</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5278940017854151</v>
+        <v>0.9741031127976014</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -644,24 +644,24 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>c__Actinomycetia(reject)</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1054.fa</t>
+          <t>even_MAG-GUT1135.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9868650267735504</v>
+        <v>0.9837644954393451</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01313497322644962</v>
+        <v>0.01623550456065491</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9868650267735504</v>
+        <v>0.9837644954393451</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -677,43 +677,43 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1059.fa</t>
+          <t>even_MAG-GUT11526.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9939112276038101</v>
+        <v>0.01616196425295269</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006088772396189857</v>
+        <v>0.9838380357470473</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9939112276038101</v>
+        <v>0.9838380357470473</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1065.fa</t>
+          <t>even_MAG-GUT11741.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9881421613088107</v>
+        <v>0.7696025026129475</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01185783869118929</v>
+        <v>0.2303974973870525</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9881421613088107</v>
+        <v>0.7696025026129475</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -729,43 +729,43 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1089.fa</t>
+          <t>even_MAG-GUT11820.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9914635157815327</v>
+        <v>0.0219643949581253</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008536484218467316</v>
+        <v>0.9780356050418747</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9914635157815327</v>
+        <v>0.9780356050418747</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10928.fa</t>
+          <t>even_MAG-GUT11972.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001488773949114619</v>
+        <v>0.02685444832707884</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9985112260508854</v>
+        <v>0.9731455516729212</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9985112260508854</v>
+        <v>0.9731455516729212</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -781,121 +781,121 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1122.fa</t>
+          <t>even_MAG-GUT12106.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9926981421227821</v>
+        <v>0.01427200373728155</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007301857877217982</v>
+        <v>0.9857279962627185</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9926981421227821</v>
+        <v>0.9857279962627185</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1128.fa</t>
+          <t>even_MAG-GUT12269.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9921008035287651</v>
+        <v>0.4429431607971099</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007899196471234913</v>
+        <v>0.5570568392028901</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9921008035287651</v>
+        <v>0.5570568392028901</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia(reject)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1131.fa</t>
+          <t>even_MAG-GUT12393.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9741031127976014</v>
+        <v>0.001009553312943612</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02589688720239853</v>
+        <v>0.9989904466870564</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9741031127976014</v>
+        <v>0.9989904466870564</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1133.fa</t>
+          <t>even_MAG-GUT12533.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9849680635450565</v>
+        <v>0.005191757723630341</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0150319364549435</v>
+        <v>0.9948082422763697</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9849680635450565</v>
+        <v>0.9948082422763697</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1135.fa</t>
+          <t>even_MAG-GUT1265.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9837644954393451</v>
+        <v>0.9884348126130408</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01623550456065491</v>
+        <v>0.01156518738695922</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9837644954393451</v>
+        <v>0.9884348126130408</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -911,43 +911,43 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1139.fa</t>
+          <t>even_MAG-GUT12691.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9913473687605622</v>
+        <v>0.000886570946826315</v>
       </c>
       <c r="C19" t="n">
-        <v>0.008652631239437821</v>
+        <v>0.9991134290531737</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9913473687605622</v>
+        <v>0.9991134290531737</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1143.fa</t>
+          <t>even_MAG-GUT12794.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9893739376250041</v>
+        <v>0.7466647976306102</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01062606237499582</v>
+        <v>0.2533352023693898</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9893739376250041</v>
+        <v>0.7466647976306102</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -963,17 +963,17 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1148.fa</t>
+          <t>even_MAG-GUT12944.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.977544335680227</v>
+        <v>0.7382852853479281</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02245566431977295</v>
+        <v>0.2617147146520719</v>
       </c>
       <c r="D21" t="n">
-        <v>0.977544335680227</v>
+        <v>0.7382852853479281</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -989,69 +989,69 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1149.fa</t>
+          <t>even_MAG-GUT13333.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.987526501453197</v>
+        <v>0.006248118891746146</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01247349854680299</v>
+        <v>0.9937518811082539</v>
       </c>
       <c r="D22" t="n">
-        <v>0.987526501453197</v>
+        <v>0.9937518811082539</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1157.fa</t>
+          <t>even_MAG-GUT13881.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9903130803131053</v>
+        <v>0.1301476218929715</v>
       </c>
       <c r="C23" t="n">
-        <v>0.009686919686894757</v>
+        <v>0.8698523781070285</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9903130803131053</v>
+        <v>0.8698523781070285</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11934.fa</t>
+          <t>even_MAG-GUT1389.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2330338444593147</v>
+        <v>0.007610787856423884</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7669661555406854</v>
+        <v>0.9923892121435761</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7669661555406854</v>
+        <v>0.9923892121435761</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1060,76 +1060,76 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia(reject)</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1249.fa</t>
+          <t>even_MAG-GUT14250.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9911838992239318</v>
+        <v>0.1121604209454042</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00881610077606825</v>
+        <v>0.8878395790545958</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9911838992239318</v>
+        <v>0.8878395790545958</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1258.fa</t>
+          <t>even_MAG-GUT151.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9892444772064931</v>
+        <v>0.01114741619147874</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0107555227935069</v>
+        <v>0.9888525838085213</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9892444772064931</v>
+        <v>0.9888525838085213</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1265.fa</t>
+          <t>even_MAG-GUT1534.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9884348126130408</v>
+        <v>0.9686503853086449</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01156518738695922</v>
+        <v>0.03134961469135511</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9884348126130408</v>
+        <v>0.9686503853086449</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1145,17 +1145,17 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1274.fa</t>
+          <t>even_MAG-GUT1537.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.992328497963209</v>
+        <v>0.9882801281112283</v>
       </c>
       <c r="C28" t="n">
-        <v>0.007671502036791027</v>
+        <v>0.01171987188877164</v>
       </c>
       <c r="D28" t="n">
-        <v>0.992328497963209</v>
+        <v>0.9882801281112283</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1171,95 +1171,95 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1282.fa</t>
+          <t>even_MAG-GUT15625.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9902598719481467</v>
+        <v>0.09837935283814581</v>
       </c>
       <c r="C29" t="n">
-        <v>0.009740128051853276</v>
+        <v>0.9016206471618542</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9902598719481467</v>
+        <v>0.9016206471618542</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1287.fa</t>
+          <t>even_MAG-GUT15850.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9615851157851286</v>
+        <v>0.007111477360421059</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03841488421487136</v>
+        <v>0.9928885226395789</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9615851157851286</v>
+        <v>0.9928885226395789</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12944.fa</t>
+          <t>even_MAG-GUT15909.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.7382852853479281</v>
+        <v>0.003739201908875556</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2617147146520719</v>
+        <v>0.9962607980911244</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7382852853479281</v>
+        <v>0.9962607980911244</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1389.fa</t>
+          <t>even_MAG-GUT16149.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.007610787856423884</v>
+        <v>0.1698693763948829</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9923892121435761</v>
+        <v>0.8301306236051172</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9923892121435761</v>
+        <v>0.8301306236051172</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1275,95 +1275,95 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1453.fa</t>
+          <t>even_MAG-GUT16851.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9828225635730032</v>
+        <v>0.0005470723980379733</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0171774364269968</v>
+        <v>0.999452927601962</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9828225635730032</v>
+        <v>0.999452927601962</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1485.fa</t>
+          <t>even_MAG-GUT17247.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9975032608089326</v>
+        <v>0.08193894140230562</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002496739191067394</v>
+        <v>0.9180610585976944</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9975032608089326</v>
+        <v>0.9180610585976944</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1529.fa</t>
+          <t>even_MAG-GUT17705.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9811226927053043</v>
+        <v>0.01381428284239072</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01887730729469575</v>
+        <v>0.9861857171576093</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9811226927053043</v>
+        <v>0.9861857171576093</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1534.fa</t>
+          <t>even_MAG-GUT18031.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9686503853086449</v>
+        <v>0.6314385765234081</v>
       </c>
       <c r="C36" t="n">
-        <v>0.03134961469135511</v>
+        <v>0.3685614234765919</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9686503853086449</v>
+        <v>0.6314385765234081</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1379,17 +1379,17 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1537.fa</t>
+          <t>even_MAG-GUT18037.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9882801281112283</v>
+        <v>0.7573662141064651</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01171987188877164</v>
+        <v>0.2426337858935349</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9882801281112283</v>
+        <v>0.7573662141064651</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1405,17 +1405,17 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15625.fa</t>
+          <t>even_MAG-GUT18195.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.09837935283814581</v>
+        <v>0.1141110535717433</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9016206471618542</v>
+        <v>0.8858889464282568</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9016206471618542</v>
+        <v>0.8858889464282568</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1431,17 +1431,17 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15850.fa</t>
+          <t>even_MAG-GUT18361.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.007111477360421059</v>
+        <v>0.2420052391490055</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9928885226395789</v>
+        <v>0.7579947608509945</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9928885226395789</v>
+        <v>0.7579947608509945</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1450,24 +1450,24 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Coriobacteriia(reject)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15909.fa</t>
+          <t>even_MAG-GUT18429.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.003739201908875556</v>
+        <v>0.01808364493536241</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9962607980911244</v>
+        <v>0.9819163550646376</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9962607980911244</v>
+        <v>0.9819163550646376</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1483,17 +1483,17 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17247.fa</t>
+          <t>even_MAG-GUT1975.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.08193894140230562</v>
+        <v>0.04943306505503464</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9180610585976944</v>
+        <v>0.9505669349449654</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9180610585976944</v>
+        <v>0.9505669349449654</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1509,225 +1509,225 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1826.fa</t>
+          <t>even_MAG-GUT1986.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9011447543342767</v>
+        <v>0.02170739194711446</v>
       </c>
       <c r="C42" t="n">
-        <v>0.09885524566572336</v>
+        <v>0.9782926080528855</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9011447543342767</v>
+        <v>0.9782926080528855</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18429.fa</t>
+          <t>even_MAG-GUT20293.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01808364493536241</v>
+        <v>0.8676569817214711</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9819163550646376</v>
+        <v>0.1323430182785289</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9819163550646376</v>
+        <v>0.8676569817214711</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1870.fa</t>
+          <t>even_MAG-GUT21962.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9925262150088393</v>
+        <v>0.1087336771718473</v>
       </c>
       <c r="C44" t="n">
-        <v>0.007473784991160744</v>
+        <v>0.8912663228281527</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9925262150088393</v>
+        <v>0.8912663228281527</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1873.fa</t>
+          <t>even_MAG-GUT22751.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9893148935602893</v>
+        <v>0.03045001207780784</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01068510643971069</v>
+        <v>0.9695499879221922</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9893148935602893</v>
+        <v>0.9695499879221922</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1877.fa</t>
+          <t>even_MAG-GUT23753.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9861902042774142</v>
+        <v>0.04307324794293477</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01380979572258575</v>
+        <v>0.9569267520570652</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9861902042774142</v>
+        <v>0.9569267520570652</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1881.fa</t>
+          <t>even_MAG-GUT23967.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9884650291853389</v>
+        <v>0.02291997258028922</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01153497081466111</v>
+        <v>0.9770800274197108</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9884650291853389</v>
+        <v>0.9770800274197108</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1883.fa</t>
+          <t>even_MAG-GUT25075.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9921020564573445</v>
+        <v>0.07655887036155007</v>
       </c>
       <c r="C48" t="n">
-        <v>0.007897943542655534</v>
+        <v>0.9234411296384499</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9921020564573445</v>
+        <v>0.9234411296384499</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1912.fa</t>
+          <t>even_MAG-GUT25307.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9854067855677937</v>
+        <v>0.4739777294996482</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01459321443220625</v>
+        <v>0.5260222705003518</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9854067855677937</v>
+        <v>0.5260222705003518</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia(reject)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1975.fa</t>
+          <t>even_MAG-GUT25519.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.04943306505503464</v>
+        <v>0.01701696786067131</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9505669349449654</v>
+        <v>0.9829830321393287</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9505669349449654</v>
+        <v>0.9829830321393287</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1743,17 +1743,17 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1986.fa</t>
+          <t>even_MAG-GUT25763.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.02170739194711446</v>
+        <v>0.00176281464192396</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9782926080528855</v>
+        <v>0.998237185358076</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9782926080528855</v>
+        <v>0.998237185358076</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1769,95 +1769,95 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2058.fa</t>
+          <t>even_MAG-GUT25961.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.6940355610255817</v>
+        <v>0.0008656199720902258</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3059644389744182</v>
+        <v>0.9991343800279098</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6940355610255817</v>
+        <v>0.9991343800279098</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2078.fa</t>
+          <t>even_MAG-GUT26205.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.9805086041106981</v>
+        <v>0.0001607161840024851</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01949139588930189</v>
+        <v>0.9998392838159975</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9805086041106981</v>
+        <v>0.9998392838159975</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2079.fa</t>
+          <t>even_MAG-GUT26303.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.7304884091618581</v>
+        <v>0.003157905985692433</v>
       </c>
       <c r="C54" t="n">
-        <v>0.269511590838142</v>
+        <v>0.9968420940143076</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7304884091618581</v>
+        <v>0.9968420940143076</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21962.fa</t>
+          <t>even_MAG-GUT26387.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1087336771718473</v>
+        <v>0.0009721991921241013</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8912663228281527</v>
+        <v>0.9990278008078759</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8912663228281527</v>
+        <v>0.9990278008078759</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1873,69 +1873,69 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23346.fa</t>
+          <t>even_MAG-GUT26459.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9478021068933513</v>
+        <v>0.001633148202172308</v>
       </c>
       <c r="C56" t="n">
-        <v>0.05219789310664863</v>
+        <v>0.9983668517978277</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9478021068933513</v>
+        <v>0.9983668517978277</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23723.fa</t>
+          <t>even_MAG-GUT26531.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.8069972719874807</v>
+        <v>0.007473501619922662</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1930027280125193</v>
+        <v>0.9925264983800773</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8069972719874807</v>
+        <v>0.9925264983800773</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23753.fa</t>
+          <t>even_MAG-GUT26562.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.04307324794293477</v>
+        <v>0.0006380166510333574</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9569267520570652</v>
+        <v>0.9993619833489666</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9569267520570652</v>
+        <v>0.9993619833489666</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1951,17 +1951,17 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25307.fa</t>
+          <t>even_MAG-GUT2660.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.4739777294996482</v>
+        <v>0.001987789855589006</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5260222705003518</v>
+        <v>0.998012210144411</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5260222705003518</v>
+        <v>0.998012210144411</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1970,24 +1970,24 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia(reject)</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25519.fa</t>
+          <t>even_MAG-GUT26803.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01701696786067131</v>
+        <v>0.01847240049157439</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9829830321393287</v>
+        <v>0.9815275995084256</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9829830321393287</v>
+        <v>0.9815275995084256</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2003,43 +2003,43 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25763.fa</t>
+          <t>even_MAG-GUT27129.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.00176281464192396</v>
+        <v>0.9627746274368778</v>
       </c>
       <c r="C61" t="n">
-        <v>0.998237185358076</v>
+        <v>0.03722537256312223</v>
       </c>
       <c r="D61" t="n">
-        <v>0.998237185358076</v>
+        <v>0.9627746274368778</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25961.fa</t>
+          <t>even_MAG-GUT2783.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.0008656199720902258</v>
+        <v>0.01598008874792767</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9991343800279098</v>
+        <v>0.9840199112520723</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9991343800279098</v>
+        <v>0.9840199112520723</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2055,17 +2055,17 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26205.fa</t>
+          <t>even_MAG-GUT28915.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0001607161840024851</v>
+        <v>0.180092337530616</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9998392838159975</v>
+        <v>0.819907662469384</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9998392838159975</v>
+        <v>0.819907662469384</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2081,17 +2081,17 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26303.fa</t>
+          <t>even_MAG-GUT29414.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.003157905985692433</v>
+        <v>0.008129458708760584</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9968420940143076</v>
+        <v>0.9918705412912394</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9968420940143076</v>
+        <v>0.9918705412912394</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2107,17 +2107,17 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26387.fa</t>
+          <t>even_MAG-GUT29494.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.0009721991921241013</v>
+        <v>0.00435061140620574</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9990278008078759</v>
+        <v>0.9956493885937943</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9990278008078759</v>
+        <v>0.9956493885937943</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2133,17 +2133,17 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26459.fa</t>
+          <t>even_MAG-GUT30102.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.001633148202172308</v>
+        <v>0.009536940538104943</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9983668517978277</v>
+        <v>0.9904630594618951</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9983668517978277</v>
+        <v>0.9904630594618951</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2159,43 +2159,43 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26531.fa</t>
+          <t>even_MAG-GUT31343.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.007473501619922662</v>
+        <v>0.8068406060627272</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9925264983800773</v>
+        <v>0.1931593939372727</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9925264983800773</v>
+        <v>0.8068406060627272</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26562.fa</t>
+          <t>even_MAG-GUT31502.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0006380166510333574</v>
+        <v>0.03525721494725387</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9993619833489666</v>
+        <v>0.9647427850527461</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9993619833489666</v>
+        <v>0.9647427850527461</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2211,95 +2211,95 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26586.fa</t>
+          <t>even_MAG-GUT31546.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.6956251979667041</v>
+        <v>0.1184529858364203</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3043748020332959</v>
+        <v>0.8815470141635797</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6956251979667041</v>
+        <v>0.8815470141635797</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28721.fa</t>
+          <t>even_MAG-GUT32356.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.5446976740895118</v>
+        <v>0.1050957224709733</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4553023259104882</v>
+        <v>0.8949042775290267</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5446976740895118</v>
+        <v>0.8949042775290267</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>c__Actinomycetia(reject)</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28738.fa</t>
+          <t>even_MAG-GUT32404.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.6691662341994562</v>
+        <v>0.008609869312931839</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3308337658005437</v>
+        <v>0.9913901306870682</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6691662341994562</v>
+        <v>0.9913901306870682</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29414.fa</t>
+          <t>even_MAG-GUT32509.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.008129458708760584</v>
+        <v>0.002359046179122748</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9918705412912394</v>
+        <v>0.9976409538208773</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9918705412912394</v>
+        <v>0.9976409538208773</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2315,17 +2315,17 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29494.fa</t>
+          <t>even_MAG-GUT32879.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.00435061140620574</v>
+        <v>0.001447547956752726</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9956493885937943</v>
+        <v>0.9985524520432473</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9956493885937943</v>
+        <v>0.9985524520432473</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2341,17 +2341,17 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31502.fa</t>
+          <t>even_MAG-GUT32889.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.03525721494725387</v>
+        <v>0.08028638032881608</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9647427850527461</v>
+        <v>0.9197136196711839</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9647427850527461</v>
+        <v>0.9197136196711839</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2367,17 +2367,17 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32356.fa</t>
+          <t>even_MAG-GUT32902.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1050957224709733</v>
+        <v>0.04571552136057067</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8949042775290267</v>
+        <v>0.9542844786394293</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8949042775290267</v>
+        <v>0.9542844786394293</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2393,17 +2393,17 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32889.fa</t>
+          <t>even_MAG-GUT33244.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.08028638032881608</v>
+        <v>0.003137633151533481</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9197136196711839</v>
+        <v>0.9968623668484665</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9197136196711839</v>
+        <v>0.9968623668484665</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2419,17 +2419,17 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32902.fa</t>
+          <t>even_MAG-GUT33270.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.04571552136057067</v>
+        <v>0.2242893792758173</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9542844786394293</v>
+        <v>0.7757106207241827</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9542844786394293</v>
+        <v>0.7757106207241827</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2438,24 +2438,24 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Coriobacteriia(reject)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33244.fa</t>
+          <t>even_MAG-GUT33324.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.003137633151533481</v>
+        <v>0.002726873168157229</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9968623668484665</v>
+        <v>0.9972731268318428</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9968623668484665</v>
+        <v>0.9972731268318428</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2523,43 +2523,43 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34594.fa</t>
+          <t>even_MAG-GUT336.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.001825819602198742</v>
+        <v>0.8537479456165686</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9981741803978013</v>
+        <v>0.1462520543834314</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9981741803978013</v>
+        <v>0.8537479456165686</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35198.fa</t>
+          <t>even_MAG-GUT33914.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.007730700487663444</v>
+        <v>0.008100476450849881</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9922692995123366</v>
+        <v>0.9918995235491501</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9922692995123366</v>
+        <v>0.9918995235491501</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2575,17 +2575,17 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35271.fa</t>
+          <t>even_MAG-GUT34594.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.001284120503468378</v>
+        <v>0.001825819602198742</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9987158794965316</v>
+        <v>0.9981741803978013</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9987158794965316</v>
+        <v>0.9981741803978013</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2601,17 +2601,17 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3531.fa</t>
+          <t>even_MAG-GUT35087.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.008758476943493965</v>
+        <v>0.00100165365877869</v>
       </c>
       <c r="C84" t="n">
-        <v>0.991241523056506</v>
+        <v>0.9989983463412213</v>
       </c>
       <c r="D84" t="n">
-        <v>0.991241523056506</v>
+        <v>0.9989983463412213</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2627,17 +2627,17 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36138.fa</t>
+          <t>even_MAG-GUT35198.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.3359196897526983</v>
+        <v>0.007730700487663444</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6640803102473017</v>
+        <v>0.9922692995123366</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6640803102473017</v>
+        <v>0.9922692995123366</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2646,24 +2646,24 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia(reject)</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37024.fa</t>
+          <t>even_MAG-GUT35206.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.00251850180781088</v>
+        <v>0.1129340639394637</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9974814981921891</v>
+        <v>0.8870659360605363</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9974814981921891</v>
+        <v>0.8870659360605363</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2679,17 +2679,17 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37090.fa</t>
+          <t>even_MAG-GUT35271.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.4450863475369786</v>
+        <v>0.001284120503468378</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5549136524630214</v>
+        <v>0.9987158794965316</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5549136524630214</v>
+        <v>0.9987158794965316</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2698,24 +2698,24 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia(reject)</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38263.fa</t>
+          <t>even_MAG-GUT3531.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.001139066316480419</v>
+        <v>0.008758476943493965</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9988609336835196</v>
+        <v>0.991241523056506</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9988609336835196</v>
+        <v>0.991241523056506</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2731,17 +2731,17 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39108.fa</t>
+          <t>even_MAG-GUT35597.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.001972224141167378</v>
+        <v>0.0004921164742940354</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9980277758588326</v>
+        <v>0.999507883525706</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9980277758588326</v>
+        <v>0.999507883525706</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2757,433 +2757,433 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT408.fa</t>
+          <t>even_MAG-GUT35747.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.918201856811389</v>
+        <v>0.224323537585434</v>
       </c>
       <c r="C90" t="n">
-        <v>0.08179814318861098</v>
+        <v>0.775676462414566</v>
       </c>
       <c r="D90" t="n">
-        <v>0.918201856811389</v>
+        <v>0.775676462414566</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia(reject)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT409.fa</t>
+          <t>even_MAG-GUT36138.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.9211812400481914</v>
+        <v>0.3359196897526983</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0788187599518087</v>
+        <v>0.6640803102473017</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9211812400481914</v>
+        <v>0.6640803102473017</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia(reject)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT412.fa</t>
+          <t>even_MAG-GUT36441.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.9231354047727889</v>
+        <v>0.02513123074173429</v>
       </c>
       <c r="C92" t="n">
-        <v>0.07686459522721115</v>
+        <v>0.9748687692582657</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9231354047727889</v>
+        <v>0.9748687692582657</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT418.fa</t>
+          <t>even_MAG-GUT3651.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.9215561923089028</v>
+        <v>0.0003335196945665198</v>
       </c>
       <c r="C93" t="n">
-        <v>0.07844380769109718</v>
+        <v>0.9996664803054335</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9215561923089028</v>
+        <v>0.9996664803054335</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT420.fa</t>
+          <t>even_MAG-GUT36814.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.8921236715612989</v>
+        <v>0.03727818324869059</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1078763284387011</v>
+        <v>0.9627218167513094</v>
       </c>
       <c r="D94" t="n">
-        <v>0.8921236715612989</v>
+        <v>0.9627218167513094</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT421.fa</t>
+          <t>even_MAG-GUT3702.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.8983026262981926</v>
+        <v>0.1291917405372653</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1016973737018075</v>
+        <v>0.8708082594627347</v>
       </c>
       <c r="D95" t="n">
-        <v>0.8983026262981926</v>
+        <v>0.8708082594627347</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT422.fa</t>
+          <t>even_MAG-GUT37024.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.9419329273050803</v>
+        <v>0.00251850180781088</v>
       </c>
       <c r="C96" t="n">
-        <v>0.05806707269491979</v>
+        <v>0.9974814981921891</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9419329273050803</v>
+        <v>0.9974814981921891</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT423.fa</t>
+          <t>even_MAG-GUT37154.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.9465132823540767</v>
+        <v>0.001167256305759201</v>
       </c>
       <c r="C97" t="n">
-        <v>0.05348671764592327</v>
+        <v>0.9988327436942408</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9465132823540767</v>
+        <v>0.9988327436942408</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT425.fa</t>
+          <t>even_MAG-GUT37934.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.8521404738000447</v>
+        <v>0.001412061389233665</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1478595261999554</v>
+        <v>0.9985879386107663</v>
       </c>
       <c r="D98" t="n">
-        <v>0.8521404738000447</v>
+        <v>0.9985879386107663</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT429.fa</t>
+          <t>even_MAG-GUT38016.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.8731347172008324</v>
+        <v>0.1119794181794774</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1268652827991676</v>
+        <v>0.8880205818205226</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8731347172008324</v>
+        <v>0.8880205818205226</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT430.fa</t>
+          <t>even_MAG-GUT38263.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.9389818840858947</v>
+        <v>0.001139066316480419</v>
       </c>
       <c r="C100" t="n">
-        <v>0.06101811591410534</v>
+        <v>0.9988609336835196</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9389818840858947</v>
+        <v>0.9988609336835196</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT431.fa</t>
+          <t>even_MAG-GUT38584.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.8861948770012131</v>
+        <v>0.002037330165997719</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1138051229987869</v>
+        <v>0.9979626698340023</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8861948770012131</v>
+        <v>0.9979626698340023</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT432.fa</t>
+          <t>even_MAG-GUT38999.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.8715616574383057</v>
+        <v>0.2136337823303004</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1284383425616943</v>
+        <v>0.7863662176696996</v>
       </c>
       <c r="D102" t="n">
-        <v>0.8715616574383057</v>
+        <v>0.7863662176696996</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43254.fa</t>
+          <t>even_MAG-GUT39108.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.6995665267585709</v>
+        <v>0.001972224141167378</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3004334732414291</v>
+        <v>0.9980277758588326</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6995665267585709</v>
+        <v>0.9980277758588326</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT433.fa</t>
+          <t>even_MAG-GUT39152.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.9089781913284228</v>
+        <v>0.00197927876998405</v>
       </c>
       <c r="C104" t="n">
-        <v>0.09102180867157715</v>
+        <v>0.998020721230016</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9089781913284228</v>
+        <v>0.998020721230016</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT435.fa</t>
+          <t>even_MAG-GUT3922.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.8429158606334934</v>
+        <v>0.002247470617991687</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1570841393665065</v>
+        <v>0.9977525293820083</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8429158606334934</v>
+        <v>0.9977525293820083</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43623.fa</t>
+          <t>even_MAG-GUT3986.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.7576242094963332</v>
+        <v>0.7803876425922562</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2423757905036668</v>
+        <v>0.2196123574077437</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7576242094963332</v>
+        <v>0.7803876425922562</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3199,95 +3199,95 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43628.fa</t>
+          <t>even_MAG-GUT4044.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.9216535708841422</v>
+        <v>0.001092233259628927</v>
       </c>
       <c r="C107" t="n">
-        <v>0.07834642911585782</v>
+        <v>0.9989077667403711</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9216535708841422</v>
+        <v>0.9989077667403711</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43934.fa</t>
+          <t>even_MAG-GUT4062.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.9501352265419623</v>
+        <v>0.002586577462294959</v>
       </c>
       <c r="C108" t="n">
-        <v>0.04986477345803778</v>
+        <v>0.997413422537705</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9501352265419623</v>
+        <v>0.997413422537705</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT441.fa</t>
+          <t>even_MAG-GUT4125.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.9383573953517061</v>
+        <v>0.002033668372584119</v>
       </c>
       <c r="C109" t="n">
-        <v>0.06164260464829385</v>
+        <v>0.9979663316274159</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9383573953517061</v>
+        <v>0.9979663316274159</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT444.fa</t>
+          <t>even_MAG-GUT41378.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.915947971487444</v>
+        <v>0.920470010956997</v>
       </c>
       <c r="C110" t="n">
-        <v>0.08405202851255601</v>
+        <v>0.07952998904300296</v>
       </c>
       <c r="D110" t="n">
-        <v>0.915947971487444</v>
+        <v>0.920470010956997</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3303,43 +3303,43 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT445.fa</t>
+          <t>even_MAG-GUT4207.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.9526574490259749</v>
+        <v>0.002233755969823892</v>
       </c>
       <c r="C111" t="n">
-        <v>0.04734255097402507</v>
+        <v>0.9977662440301761</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9526574490259749</v>
+        <v>0.9977662440301761</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44512.fa</t>
+          <t>even_MAG-GUT43227.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.7446929863431677</v>
+        <v>0.9853276044594507</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2553070136568323</v>
+        <v>0.01467239554054938</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7446929863431677</v>
+        <v>0.9853276044594507</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3355,17 +3355,17 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT446.fa</t>
+          <t>even_MAG-GUT43628.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.8586318314281939</v>
+        <v>0.9216535708841422</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1413681685718061</v>
+        <v>0.07834642911585782</v>
       </c>
       <c r="D113" t="n">
-        <v>0.8586318314281939</v>
+        <v>0.9216535708841422</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3381,147 +3381,147 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44688.fa</t>
+          <t>even_MAG-GUT446.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.003253397989443574</v>
+        <v>0.8586318314281939</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9967466020105564</v>
+        <v>0.1413681685718061</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9967466020105564</v>
+        <v>0.8586318314281939</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44736.fa</t>
+          <t>even_MAG-GUT44688.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.6678171685009642</v>
+        <v>0.003253397989443574</v>
       </c>
       <c r="C115" t="n">
-        <v>0.3321828314990358</v>
+        <v>0.9967466020105564</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6678171685009642</v>
+        <v>0.9967466020105564</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT449.fa</t>
+          <t>even_MAG-GUT45090.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.9653235236779694</v>
+        <v>0.004486648967191531</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0346764763220306</v>
+        <v>0.9955133510328085</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9653235236779694</v>
+        <v>0.9955133510328085</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44961.fa</t>
+          <t>even_MAG-GUT46159.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.3857089588014244</v>
+        <v>0.5459091164592078</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6142910411985756</v>
+        <v>0.4540908835407921</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6142910411985756</v>
+        <v>0.5459091164592078</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia(reject)</t>
+          <t>c__Actinomycetia(reject)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT450.fa</t>
+          <t>even_MAG-GUT46719.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.9021902357626962</v>
+        <v>0.4862896569292733</v>
       </c>
       <c r="C118" t="n">
-        <v>0.09780976423730384</v>
+        <v>0.5137103430707267</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9021902357626962</v>
+        <v>0.5137103430707267</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia(reject)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45090.fa</t>
+          <t>even_MAG-GUT4832.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.004486648967191531</v>
+        <v>0.001805285341871632</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9955133510328085</v>
+        <v>0.9981947146581284</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9955133510328085</v>
+        <v>0.9981947146581284</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3537,17 +3537,17 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT452.fa</t>
+          <t>even_MAG-GUT48801.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.889795395356284</v>
+        <v>0.993341472531351</v>
       </c>
       <c r="C120" t="n">
-        <v>0.110204604643716</v>
+        <v>0.00665852746864903</v>
       </c>
       <c r="D120" t="n">
-        <v>0.889795395356284</v>
+        <v>0.993341472531351</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3563,17 +3563,17 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT453.fa</t>
+          <t>even_MAG-GUT48805.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.8981801757389434</v>
+        <v>0.9586929052808443</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1018198242610567</v>
+        <v>0.04130709471915569</v>
       </c>
       <c r="D121" t="n">
-        <v>0.8981801757389434</v>
+        <v>0.9586929052808443</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3589,17 +3589,17 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT455.fa</t>
+          <t>even_MAG-GUT49046.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.9488279203426244</v>
+        <v>0.9587736326155576</v>
       </c>
       <c r="C122" t="n">
-        <v>0.05117207965737557</v>
+        <v>0.04122636738444239</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9488279203426244</v>
+        <v>0.9587736326155576</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3615,17 +3615,17 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT456.fa</t>
+          <t>even_MAG-GUT49423.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.9606188603791854</v>
+        <v>0.9397444099773851</v>
       </c>
       <c r="C123" t="n">
-        <v>0.03938113962081453</v>
+        <v>0.06025559002261496</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9606188603791854</v>
+        <v>0.9397444099773851</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3641,17 +3641,17 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT457.fa</t>
+          <t>even_MAG-GUT49543.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.9370412556730831</v>
+        <v>0.9808000264154385</v>
       </c>
       <c r="C124" t="n">
-        <v>0.06295874432691698</v>
+        <v>0.01919997358456154</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9370412556730831</v>
+        <v>0.9808000264154385</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3667,69 +3667,69 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4577.fa</t>
+          <t>even_MAG-GUT4979.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.6176617016159279</v>
+        <v>0.193557196251488</v>
       </c>
       <c r="C125" t="n">
-        <v>0.3823382983840721</v>
+        <v>0.8064428037485121</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6176617016159279</v>
+        <v>0.8064428037485121</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45829.fa</t>
+          <t>even_MAG-GUT50219.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.9197810655598483</v>
+        <v>0.009541099210403803</v>
       </c>
       <c r="C126" t="n">
-        <v>0.08021893444015175</v>
+        <v>0.9904589007895962</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9197810655598483</v>
+        <v>0.9904589007895962</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT459.fa</t>
+          <t>even_MAG-GUT51557.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.8776509747779835</v>
+        <v>0.9482878860216413</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1223490252220165</v>
+        <v>0.05171211397835868</v>
       </c>
       <c r="D127" t="n">
-        <v>0.8776509747779835</v>
+        <v>0.9482878860216413</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3745,17 +3745,17 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46159.fa</t>
+          <t>even_MAG-GUT51559.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.5459091164592078</v>
+        <v>0.9560074604982955</v>
       </c>
       <c r="C128" t="n">
-        <v>0.4540908835407921</v>
+        <v>0.04399253950170445</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5459091164592078</v>
+        <v>0.9560074604982955</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3764,24 +3764,24 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>c__Actinomycetia(reject)</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT462.fa</t>
+          <t>even_MAG-GUT52319.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.8682371000271221</v>
+        <v>0.616215360670795</v>
       </c>
       <c r="C129" t="n">
-        <v>0.131762899972878</v>
+        <v>0.3837846393292051</v>
       </c>
       <c r="D129" t="n">
-        <v>0.8682371000271221</v>
+        <v>0.616215360670795</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3797,17 +3797,17 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT463.fa</t>
+          <t>even_MAG-GUT5249.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.9016078510018298</v>
+        <v>0.8150450205704878</v>
       </c>
       <c r="C130" t="n">
-        <v>0.09839214899817014</v>
+        <v>0.1849549794295123</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9016078510018298</v>
+        <v>0.8150450205704878</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3823,43 +3823,43 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT464.fa</t>
+          <t>even_MAG-GUT54544.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.9031323306251856</v>
+        <v>0.002073634970795712</v>
       </c>
       <c r="C131" t="n">
-        <v>0.09686766937481442</v>
+        <v>0.9979263650292043</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9031323306251856</v>
+        <v>0.9979263650292043</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46486.fa</t>
+          <t>even_MAG-GUT54574.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.8461479323932384</v>
+        <v>0.964024473513646</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1538520676067616</v>
+        <v>0.03597552648635401</v>
       </c>
       <c r="D132" t="n">
-        <v>0.8461479323932384</v>
+        <v>0.964024473513646</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3875,17 +3875,17 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46493.fa</t>
+          <t>even_MAG-GUT54831.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.9403394824819461</v>
+        <v>0.9058032282347914</v>
       </c>
       <c r="C133" t="n">
-        <v>0.05966051751805396</v>
+        <v>0.09419677176520846</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9403394824819461</v>
+        <v>0.9058032282347914</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3901,43 +3901,43 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT465.fa</t>
+          <t>even_MAG-GUT5486.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.9743324478133607</v>
+        <v>0.01273606663842952</v>
       </c>
       <c r="C134" t="n">
-        <v>0.02566755218663927</v>
+        <v>0.9872639333615705</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9743324478133607</v>
+        <v>0.9872639333615705</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT467.fa</t>
+          <t>even_MAG-GUT55210.fa</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.9449224023110319</v>
+        <v>0.7899874585903139</v>
       </c>
       <c r="C135" t="n">
-        <v>0.05507759768896815</v>
+        <v>0.2100125414096861</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9449224023110319</v>
+        <v>0.7899874585903139</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3953,43 +3953,43 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46719.fa</t>
+          <t>even_MAG-GUT56345.fa</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.4862896569292733</v>
+        <v>0.8187119358573742</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5137103430707267</v>
+        <v>0.1812880641426257</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5137103430707267</v>
+        <v>0.8187119358573742</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia(reject)</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46760.fa</t>
+          <t>even_MAG-GUT56545.fa</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.7078008824448628</v>
+        <v>0.9518995838914458</v>
       </c>
       <c r="C137" t="n">
-        <v>0.2921991175551372</v>
+        <v>0.04810041610855424</v>
       </c>
       <c r="D137" t="n">
-        <v>0.7078008824448628</v>
+        <v>0.9518995838914458</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -4005,17 +4005,17 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT468.fa</t>
+          <t>even_MAG-GUT56566.fa</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.8723023294816897</v>
+        <v>0.8794771672931616</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1276976705183102</v>
+        <v>0.1205228327068384</v>
       </c>
       <c r="D138" t="n">
-        <v>0.8723023294816897</v>
+        <v>0.8794771672931616</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -4031,43 +4031,43 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT469.fa</t>
+          <t>even_MAG-GUT56948.fa</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.8739915576700548</v>
+        <v>0.005459881917857734</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1260084423299453</v>
+        <v>0.9945401180821423</v>
       </c>
       <c r="D139" t="n">
-        <v>0.8739915576700548</v>
+        <v>0.9945401180821423</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT470.fa</t>
+          <t>even_MAG-GUT57085.fa</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.832886424490383</v>
+        <v>0.8729395333150702</v>
       </c>
       <c r="C140" t="n">
-        <v>0.167113575509617</v>
+        <v>0.1270604666849298</v>
       </c>
       <c r="D140" t="n">
-        <v>0.832886424490383</v>
+        <v>0.8729395333150702</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -4083,121 +4083,121 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT471.fa</t>
+          <t>even_MAG-GUT57094.fa</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.835123532925453</v>
+        <v>0.0009276026488396205</v>
       </c>
       <c r="C141" t="n">
-        <v>0.164876467074547</v>
+        <v>0.9990723973511604</v>
       </c>
       <c r="D141" t="n">
-        <v>0.835123532925453</v>
+        <v>0.9990723973511604</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47464.fa</t>
+          <t>even_MAG-GUT57392.fa</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.9342475586716924</v>
+        <v>0.0009242030986186256</v>
       </c>
       <c r="C142" t="n">
-        <v>0.06575244132830761</v>
+        <v>0.9990757969013814</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9342475586716924</v>
+        <v>0.9990757969013814</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47585.fa</t>
+          <t>even_MAG-GUT57492.fa</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.6224823980636672</v>
+        <v>0.00689737415040792</v>
       </c>
       <c r="C143" t="n">
-        <v>0.3775176019363327</v>
+        <v>0.9931026258495921</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6224823980636672</v>
+        <v>0.9931026258495921</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47777.fa</t>
+          <t>even_MAG-GUT57682.fa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.6428390170476681</v>
+        <v>0.002122697205125146</v>
       </c>
       <c r="C144" t="n">
-        <v>0.3571609829523319</v>
+        <v>0.9978773027948749</v>
       </c>
       <c r="D144" t="n">
-        <v>0.6428390170476681</v>
+        <v>0.9978773027948749</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48579.fa</t>
+          <t>even_MAG-GUT57729.fa</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.9609081750752915</v>
+        <v>0.934510426266749</v>
       </c>
       <c r="C145" t="n">
-        <v>0.03909182492470858</v>
+        <v>0.06548957373325108</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9609081750752915</v>
+        <v>0.934510426266749</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -4213,95 +4213,95 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48681.fa</t>
+          <t>even_MAG-GUT57819.fa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.9960197544849112</v>
+        <v>0.0002331343107391248</v>
       </c>
       <c r="C146" t="n">
-        <v>0.003980245515088762</v>
+        <v>0.9997668656892609</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9960197544849112</v>
+        <v>0.9997668656892609</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48721.fa</t>
+          <t>even_MAG-GUT57904.fa</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.9931368641007728</v>
+        <v>0.002207762873653873</v>
       </c>
       <c r="C147" t="n">
-        <v>0.006863135899227123</v>
+        <v>0.9977922371263461</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9931368641007728</v>
+        <v>0.9977922371263461</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48763.fa</t>
+          <t>even_MAG-GUT58156.fa</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.9640523657036488</v>
+        <v>0.0009654752171726066</v>
       </c>
       <c r="C148" t="n">
-        <v>0.03594763429635119</v>
+        <v>0.9990345247828274</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9640523657036488</v>
+        <v>0.9990345247828274</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48801.fa</t>
+          <t>even_MAG-GUT5848.fa</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.993341472531351</v>
+        <v>0.9609691136155836</v>
       </c>
       <c r="C149" t="n">
-        <v>0.00665852746864903</v>
+        <v>0.03903088638441647</v>
       </c>
       <c r="D149" t="n">
-        <v>0.993341472531351</v>
+        <v>0.9609691136155836</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -4317,199 +4317,199 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48805.fa</t>
+          <t>even_MAG-GUT58768.fa</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.9586929052808443</v>
+        <v>0.00562057222024881</v>
       </c>
       <c r="C150" t="n">
-        <v>0.04130709471915569</v>
+        <v>0.9943794277797512</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9586929052808443</v>
+        <v>0.9943794277797512</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48852.fa</t>
+          <t>even_MAG-GUT59114.fa</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.9909027546142686</v>
+        <v>0.1252135094963528</v>
       </c>
       <c r="C151" t="n">
-        <v>0.009097245385731392</v>
+        <v>0.8747864905036472</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9909027546142686</v>
+        <v>0.8747864905036472</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48995.fa</t>
+          <t>even_MAG-GUT59205.fa</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.9942713080313358</v>
+        <v>0.004392233560139513</v>
       </c>
       <c r="C152" t="n">
-        <v>0.005728691968664178</v>
+        <v>0.9956077664398605</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9942713080313358</v>
+        <v>0.9956077664398605</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49009.fa</t>
+          <t>even_MAG-GUT59296.fa</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.9920607722635618</v>
+        <v>0.0007874439306964076</v>
       </c>
       <c r="C153" t="n">
-        <v>0.007939227736438195</v>
+        <v>0.9992125560693036</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9920607722635618</v>
+        <v>0.9992125560693036</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49041.fa</t>
+          <t>even_MAG-GUT59532.fa</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.9801739204626291</v>
+        <v>0.005966670713356104</v>
       </c>
       <c r="C154" t="n">
-        <v>0.019826079537371</v>
+        <v>0.9940333292866439</v>
       </c>
       <c r="D154" t="n">
-        <v>0.9801739204626291</v>
+        <v>0.9940333292866439</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49046.fa</t>
+          <t>even_MAG-GUT59561.fa</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.9587736326155576</v>
+        <v>0.003095195905060466</v>
       </c>
       <c r="C155" t="n">
-        <v>0.04122636738444239</v>
+        <v>0.9969048040949395</v>
       </c>
       <c r="D155" t="n">
-        <v>0.9587736326155576</v>
+        <v>0.9969048040949395</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49058.fa</t>
+          <t>even_MAG-GUT59569.fa</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.9941691141424096</v>
+        <v>0.002518042404390242</v>
       </c>
       <c r="C156" t="n">
-        <v>0.00583088585759037</v>
+        <v>0.9974819575956098</v>
       </c>
       <c r="D156" t="n">
-        <v>0.9941691141424096</v>
+        <v>0.9974819575956098</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49079.fa</t>
+          <t>even_MAG-GUT61637.fa</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.9865887204682348</v>
+        <v>0.9806437832468354</v>
       </c>
       <c r="C157" t="n">
-        <v>0.01341127953176527</v>
+        <v>0.01935621675316453</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9865887204682348</v>
+        <v>0.9806437832468354</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -4525,95 +4525,95 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49243.fa</t>
+          <t>even_MAG-GUT61666.fa</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.9456407125221447</v>
+        <v>0.01420080332406859</v>
       </c>
       <c r="C158" t="n">
-        <v>0.05435928747785529</v>
+        <v>0.9857991966759314</v>
       </c>
       <c r="D158" t="n">
-        <v>0.9456407125221447</v>
+        <v>0.9857991966759314</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49261.fa</t>
+          <t>even_MAG-GUT62293.fa</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.992156661616818</v>
+        <v>0.001408910740049452</v>
       </c>
       <c r="C159" t="n">
-        <v>0.00784333838318199</v>
+        <v>0.9985910892599505</v>
       </c>
       <c r="D159" t="n">
-        <v>0.992156661616818</v>
+        <v>0.9985910892599505</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49394.fa</t>
+          <t>even_MAG-GUT62370.fa</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.9936380193219699</v>
+        <v>0.1158067891733657</v>
       </c>
       <c r="C160" t="n">
-        <v>0.006361980678030072</v>
+        <v>0.8841932108266343</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9936380193219699</v>
+        <v>0.8841932108266343</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49423.fa</t>
+          <t>even_MAG-GUT6261.fa</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.9397444099773851</v>
+        <v>0.9761063025396397</v>
       </c>
       <c r="C161" t="n">
-        <v>0.06025559002261496</v>
+        <v>0.02389369746036034</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9397444099773851</v>
+        <v>0.9761063025396397</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -4629,17 +4629,17 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49507.fa</t>
+          <t>even_MAG-GUT6265.fa</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.9909213538309241</v>
+        <v>0.9459208306564091</v>
       </c>
       <c r="C162" t="n">
-        <v>0.009078646169075999</v>
+        <v>0.05407916934359094</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9909213538309241</v>
+        <v>0.9459208306564091</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -4655,17 +4655,17 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49537.fa</t>
+          <t>even_MAG-GUT6273.fa</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.9894258079036283</v>
+        <v>0.9459208306564091</v>
       </c>
       <c r="C163" t="n">
-        <v>0.01057419209637166</v>
+        <v>0.05407916934359094</v>
       </c>
       <c r="D163" t="n">
-        <v>0.9894258079036283</v>
+        <v>0.9459208306564091</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -4681,17 +4681,17 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49543.fa</t>
+          <t>even_MAG-GUT6286.fa</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.9808000264154385</v>
+        <v>0.9459208306564091</v>
       </c>
       <c r="C164" t="n">
-        <v>0.01919997358456154</v>
+        <v>0.05407916934359094</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9808000264154385</v>
+        <v>0.9459208306564091</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -4707,43 +4707,43 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5486.fa</t>
+          <t>even_MAG-GUT63164.fa</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.01273606663842952</v>
+        <v>0.9205455033960457</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9872639333615705</v>
+        <v>0.07945449660395437</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9872639333615705</v>
+        <v>0.9205455033960457</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54955.fa</t>
+          <t>even_MAG-GUT63198.fa</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.5834935257792291</v>
+        <v>0.5087035228953249</v>
       </c>
       <c r="C166" t="n">
-        <v>0.4165064742207709</v>
+        <v>0.491296477104675</v>
       </c>
       <c r="D166" t="n">
-        <v>0.5834935257792291</v>
+        <v>0.5087035228953249</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -4759,43 +4759,43 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55663.fa</t>
+          <t>even_MAG-GUT63214.fa</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.4372575660720561</v>
+        <v>0.5418169571445763</v>
       </c>
       <c r="C167" t="n">
-        <v>0.5627424339279439</v>
+        <v>0.4581830428554237</v>
       </c>
       <c r="D167" t="n">
-        <v>0.5627424339279439</v>
+        <v>0.5418169571445763</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia(reject)</t>
+          <t>c__Actinomycetia(reject)</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55688.fa</t>
+          <t>even_MAG-GUT63219.fa</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.4950708934676598</v>
+        <v>0.1729781300703234</v>
       </c>
       <c r="C168" t="n">
-        <v>0.5049291065323402</v>
+        <v>0.8270218699296766</v>
       </c>
       <c r="D168" t="n">
-        <v>0.5049291065323402</v>
+        <v>0.8270218699296766</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -4804,24 +4804,24 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia(reject)</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55792.fa</t>
+          <t>even_MAG-GUT63286.fa</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.6643119395959798</v>
+        <v>0.5427719245908345</v>
       </c>
       <c r="C169" t="n">
-        <v>0.3356880604040202</v>
+        <v>0.4572280754091656</v>
       </c>
       <c r="D169" t="n">
-        <v>0.6643119395959798</v>
+        <v>0.5427719245908345</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -4830,50 +4830,50 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Actinomycetia(reject)</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56059.fa</t>
+          <t>even_MAG-GUT63373.fa</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.7016676063819041</v>
+        <v>0.4878651064731673</v>
       </c>
       <c r="C170" t="n">
-        <v>0.2983323936180959</v>
+        <v>0.5121348935268327</v>
       </c>
       <c r="D170" t="n">
-        <v>0.7016676063819041</v>
+        <v>0.5121348935268327</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia(reject)</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57173.fa</t>
+          <t>even_MAG-GUT63496.fa</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.7825381039023125</v>
+        <v>0.5524262372381628</v>
       </c>
       <c r="C171" t="n">
-        <v>0.2174618960976875</v>
+        <v>0.4475737627618372</v>
       </c>
       <c r="D171" t="n">
-        <v>0.7825381039023125</v>
+        <v>0.5524262372381628</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -4882,50 +4882,50 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Actinomycetia(reject)</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57392.fa</t>
+          <t>even_MAG-GUT63586.fa</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.0009242030986186256</v>
+        <v>0.548862622215751</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9990757969013814</v>
+        <v>0.451137377784249</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9990757969013814</v>
+        <v>0.548862622215751</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia(reject)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57492.fa</t>
+          <t>even_MAG-GUT63602.fa</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.00689737415040792</v>
+        <v>0.4299455352444633</v>
       </c>
       <c r="C173" t="n">
-        <v>0.9931026258495921</v>
+        <v>0.5700544647555367</v>
       </c>
       <c r="D173" t="n">
-        <v>0.9931026258495921</v>
+        <v>0.5700544647555367</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -4934,76 +4934,76 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Coriobacteriia(reject)</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57819.fa</t>
+          <t>even_MAG-GUT6384.fa</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.0002331343107391248</v>
+        <v>0.9337601876210818</v>
       </c>
       <c r="C174" t="n">
-        <v>0.9997668656892609</v>
+        <v>0.06623981237891818</v>
       </c>
       <c r="D174" t="n">
-        <v>0.9997668656892609</v>
+        <v>0.9337601876210818</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59296.fa</t>
+          <t>even_MAG-GUT6445.fa</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.0007874439306964076</v>
+        <v>0.9150433977916081</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9992125560693036</v>
+        <v>0.08495660220839182</v>
       </c>
       <c r="D175" t="n">
-        <v>0.9992125560693036</v>
+        <v>0.9150433977916081</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59472.fa</t>
+          <t>even_MAG-GUT6489.fa</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.5389274537017505</v>
+        <v>0.6542924976333284</v>
       </c>
       <c r="C176" t="n">
-        <v>0.4610725462982495</v>
+        <v>0.3457075023666715</v>
       </c>
       <c r="D176" t="n">
-        <v>0.5389274537017505</v>
+        <v>0.6542924976333284</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -5012,102 +5012,102 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>c__Actinomycetia(reject)</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59532.fa</t>
+          <t>even_MAG-GUT66949.fa</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.005966670713356104</v>
+        <v>0.7311461358924408</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9940333292866439</v>
+        <v>0.2688538641075592</v>
       </c>
       <c r="D177" t="n">
-        <v>0.9940333292866439</v>
+        <v>0.7311461358924408</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59561.fa</t>
+          <t>even_MAG-GUT67770.fa</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.003095195905060466</v>
+        <v>0.5019548678512071</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9969048040949395</v>
+        <v>0.4980451321487929</v>
       </c>
       <c r="D178" t="n">
-        <v>0.9969048040949395</v>
+        <v>0.5019548678512071</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia(reject)</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59569.fa</t>
+          <t>even_MAG-GUT6784.fa</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.002518042404390242</v>
+        <v>0.9847194839179004</v>
       </c>
       <c r="C179" t="n">
-        <v>0.9974819575956098</v>
+        <v>0.01528051608209963</v>
       </c>
       <c r="D179" t="n">
-        <v>0.9974819575956098</v>
+        <v>0.9847194839179004</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61666.fa</t>
+          <t>even_MAG-GUT68023.fa</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.01420080332406859</v>
+        <v>0.3862083748409977</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9857991966759314</v>
+        <v>0.6137916251590023</v>
       </c>
       <c r="D180" t="n">
-        <v>0.9857991966759314</v>
+        <v>0.6137916251590023</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -5116,50 +5116,50 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Coriobacteriia(reject)</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62023.fa</t>
+          <t>even_MAG-GUT68181.fa</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.5926179338405169</v>
+        <v>0.3555911126260987</v>
       </c>
       <c r="C181" t="n">
-        <v>0.4073820661594831</v>
+        <v>0.6444088873739012</v>
       </c>
       <c r="D181" t="n">
-        <v>0.5926179338405169</v>
+        <v>0.6444088873739012</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>c__Actinomycetia(reject)</t>
+          <t>c__Coriobacteriia(reject)</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62293.fa</t>
+          <t>even_MAG-GUT6856.fa</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.001408910740049452</v>
+        <v>0.01353857727251306</v>
       </c>
       <c r="C182" t="n">
-        <v>0.9985910892599505</v>
+        <v>0.9864614227274869</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9985910892599505</v>
+        <v>0.9864614227274869</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -5175,43 +5175,43 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6244.fa</t>
+          <t>even_MAG-GUT68598.fa</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.9912441994876455</v>
+        <v>0.009808056819241351</v>
       </c>
       <c r="C183" t="n">
-        <v>0.008755800512354493</v>
+        <v>0.9901919431807586</v>
       </c>
       <c r="D183" t="n">
-        <v>0.9912441994876455</v>
+        <v>0.9901919431807586</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6247.fa</t>
+          <t>even_MAG-GUT68642.fa</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.9936439435434788</v>
+        <v>0.8501197936308217</v>
       </c>
       <c r="C184" t="n">
-        <v>0.006356056456521143</v>
+        <v>0.1498802063691783</v>
       </c>
       <c r="D184" t="n">
-        <v>0.9936439435434788</v>
+        <v>0.8501197936308217</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -5227,43 +5227,43 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6251.fa</t>
+          <t>even_MAG-GUT68659.fa</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.980469925743215</v>
+        <v>0.4684637847199815</v>
       </c>
       <c r="C185" t="n">
-        <v>0.019530074256785</v>
+        <v>0.5315362152800185</v>
       </c>
       <c r="D185" t="n">
-        <v>0.980469925743215</v>
+        <v>0.5315362152800185</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia(reject)</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6256.fa</t>
+          <t>even_MAG-GUT69048.fa</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.9965065771032213</v>
+        <v>0.5129842737213539</v>
       </c>
       <c r="C186" t="n">
-        <v>0.003493422896778642</v>
+        <v>0.4870157262786461</v>
       </c>
       <c r="D186" t="n">
-        <v>0.9965065771032213</v>
+        <v>0.5129842737213539</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -5272,50 +5272,50 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Actinomycetia(reject)</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6261.fa</t>
+          <t>even_MAG-GUT6929.fa</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.9761063025396397</v>
+        <v>0.131762169787923</v>
       </c>
       <c r="C187" t="n">
-        <v>0.02389369746036034</v>
+        <v>0.868237830212077</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9761063025396397</v>
+        <v>0.868237830212077</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6265.fa</t>
+          <t>even_MAG-GUT69662.fa</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.9459208306564091</v>
+        <v>0.9698649864674521</v>
       </c>
       <c r="C188" t="n">
-        <v>0.05407916934359094</v>
+        <v>0.03013501353254787</v>
       </c>
       <c r="D188" t="n">
-        <v>0.9459208306564091</v>
+        <v>0.9698649864674521</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -5331,17 +5331,17 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6273.fa</t>
+          <t>even_MAG-GUT7042.fa</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.9459208306564091</v>
+        <v>0.8862312726746472</v>
       </c>
       <c r="C189" t="n">
-        <v>0.05407916934359094</v>
+        <v>0.1137687273253528</v>
       </c>
       <c r="D189" t="n">
-        <v>0.9459208306564091</v>
+        <v>0.8862312726746472</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -5357,43 +5357,43 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6280.fa</t>
+          <t>even_MAG-GUT74324.fa</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.9826211441942789</v>
+        <v>0.3204865030874169</v>
       </c>
       <c r="C190" t="n">
-        <v>0.01737885580572106</v>
+        <v>0.6795134969125831</v>
       </c>
       <c r="D190" t="n">
-        <v>0.9826211441942789</v>
+        <v>0.6795134969125831</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia(reject)</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6286.fa</t>
+          <t>even_MAG-GUT76034.fa</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.9459208306564091</v>
+        <v>0.8826446951915874</v>
       </c>
       <c r="C191" t="n">
-        <v>0.05407916934359094</v>
+        <v>0.1173553048084126</v>
       </c>
       <c r="D191" t="n">
-        <v>0.9459208306564091</v>
+        <v>0.8826446951915874</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -5409,17 +5409,17 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6290.fa</t>
+          <t>even_MAG-GUT78579.fa</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.9826211441942789</v>
+        <v>0.9025084331021949</v>
       </c>
       <c r="C192" t="n">
-        <v>0.01737885580572106</v>
+        <v>0.09749156689780515</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9826211441942789</v>
+        <v>0.9025084331021949</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -5435,95 +5435,95 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT64457.fa</t>
+          <t>even_MAG-GUT79219.fa</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.843831558087769</v>
+        <v>0.001833777812238369</v>
       </c>
       <c r="C193" t="n">
-        <v>0.156168441912231</v>
+        <v>0.9981662221877616</v>
       </c>
       <c r="D193" t="n">
-        <v>0.843831558087769</v>
+        <v>0.9981662221877616</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66991.fa</t>
+          <t>even_MAG-GUT80384.fa</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.6828932737457993</v>
+        <v>0.09626882083240285</v>
       </c>
       <c r="C194" t="n">
-        <v>0.3171067262542006</v>
+        <v>0.9037311791675972</v>
       </c>
       <c r="D194" t="n">
-        <v>0.6828932737457993</v>
+        <v>0.9037311791675972</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67012.fa</t>
+          <t>even_MAG-GUT80720.fa</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.966395984604041</v>
+        <v>0.005090672157069598</v>
       </c>
       <c r="C195" t="n">
-        <v>0.033604015395959</v>
+        <v>0.9949093278429304</v>
       </c>
       <c r="D195" t="n">
-        <v>0.966395984604041</v>
+        <v>0.9949093278429304</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67029.fa</t>
+          <t>even_MAG-GUT80804.fa</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.9462570591176828</v>
+        <v>0.821798287749151</v>
       </c>
       <c r="C196" t="n">
-        <v>0.05374294088231721</v>
+        <v>0.1782017122508491</v>
       </c>
       <c r="D196" t="n">
-        <v>0.9462570591176828</v>
+        <v>0.821798287749151</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -5539,17 +5539,17 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67120.fa</t>
+          <t>even_MAG-GUT80819.fa</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.4804454783676636</v>
+        <v>0.04518201717421033</v>
       </c>
       <c r="C197" t="n">
-        <v>0.5195545216323364</v>
+        <v>0.9548179828257897</v>
       </c>
       <c r="D197" t="n">
-        <v>0.5195545216323364</v>
+        <v>0.9548179828257897</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -5558,24 +5558,24 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia(reject)</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67723.fa</t>
+          <t>even_MAG-GUT81204.fa</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.7209072601507438</v>
+        <v>0.8711029495092613</v>
       </c>
       <c r="C198" t="n">
-        <v>0.2790927398492561</v>
+        <v>0.1288970504907388</v>
       </c>
       <c r="D198" t="n">
-        <v>0.7209072601507438</v>
+        <v>0.8711029495092613</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -5591,147 +5591,147 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67770.fa</t>
+          <t>even_MAG-GUT81523.fa</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.5019548678512071</v>
+        <v>0.08808607353968056</v>
       </c>
       <c r="C199" t="n">
-        <v>0.4980451321487929</v>
+        <v>0.9119139264603194</v>
       </c>
       <c r="D199" t="n">
-        <v>0.5019548678512071</v>
+        <v>0.9119139264603194</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>c__Actinomycetia(reject)</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67779.fa</t>
+          <t>even_MAG-GUT81959.fa</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.5376103392232194</v>
+        <v>0.2246200337301979</v>
       </c>
       <c r="C200" t="n">
-        <v>0.4623896607767806</v>
+        <v>0.7753799662698021</v>
       </c>
       <c r="D200" t="n">
-        <v>0.5376103392232194</v>
+        <v>0.7753799662698021</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>c__Actinomycetia(reject)</t>
+          <t>c__Coriobacteriia(reject)</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67830.fa</t>
+          <t>even_MAG-GUT82008.fa</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.5077916249445131</v>
+        <v>0.02399038651143704</v>
       </c>
       <c r="C201" t="n">
-        <v>0.4922083750554868</v>
+        <v>0.976009613488563</v>
       </c>
       <c r="D201" t="n">
-        <v>0.5077916249445131</v>
+        <v>0.976009613488563</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>c__Actinomycetia(reject)</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67839.fa</t>
+          <t>even_MAG-GUT8267.fa</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.3079540293324685</v>
+        <v>0.914518890976438</v>
       </c>
       <c r="C202" t="n">
-        <v>0.6920459706675315</v>
+        <v>0.085481109023562</v>
       </c>
       <c r="D202" t="n">
-        <v>0.6920459706675315</v>
+        <v>0.914518890976438</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia(reject)</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67975.fa</t>
+          <t>even_MAG-GUT85133.fa</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.9082311182976721</v>
+        <v>0.002524910267905245</v>
       </c>
       <c r="C203" t="n">
-        <v>0.09176888170232791</v>
+        <v>0.9974750897320948</v>
       </c>
       <c r="D203" t="n">
-        <v>0.9082311182976721</v>
+        <v>0.9974750897320948</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67977.fa</t>
+          <t>even_MAG-GUT85491.fa</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.4710673623346499</v>
+        <v>0.2479952915245099</v>
       </c>
       <c r="C204" t="n">
-        <v>0.5289326376653501</v>
+        <v>0.7520047084754901</v>
       </c>
       <c r="D204" t="n">
-        <v>0.5289326376653501</v>
+        <v>0.7520047084754901</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -5747,95 +5747,95 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68007.fa</t>
+          <t>even_MAG-GUT8640.fa</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.5854889255927578</v>
+        <v>0.01297252896430801</v>
       </c>
       <c r="C205" t="n">
-        <v>0.4145110744072422</v>
+        <v>0.987027471035692</v>
       </c>
       <c r="D205" t="n">
-        <v>0.5854889255927578</v>
+        <v>0.987027471035692</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>c__Actinomycetia(reject)</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68023.fa</t>
+          <t>even_MAG-GUT86504.fa</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.3862083748409977</v>
+        <v>0.9603507901769092</v>
       </c>
       <c r="C206" t="n">
-        <v>0.6137916251590023</v>
+        <v>0.03964920982309084</v>
       </c>
       <c r="D206" t="n">
-        <v>0.6137916251590023</v>
+        <v>0.9603507901769092</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia(reject)</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68145.fa</t>
+          <t>even_MAG-GUT86606.fa</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.3724717751491098</v>
+        <v>0.5882239256132576</v>
       </c>
       <c r="C207" t="n">
-        <v>0.6275282248508901</v>
+        <v>0.4117760743867424</v>
       </c>
       <c r="D207" t="n">
-        <v>0.6275282248508901</v>
+        <v>0.5882239256132576</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia(reject)</t>
+          <t>c__Actinomycetia(reject)</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68157.fa</t>
+          <t>even_MAG-GUT8776.fa</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.4971336820387696</v>
+        <v>0.001975350842229107</v>
       </c>
       <c r="C208" t="n">
-        <v>0.5028663179612304</v>
+        <v>0.9980246491577709</v>
       </c>
       <c r="D208" t="n">
-        <v>0.5028663179612304</v>
+        <v>0.9980246491577709</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -5844,102 +5844,102 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia(reject)</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68181.fa</t>
+          <t>even_MAG-GUT88052.fa</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.3555911126260987</v>
+        <v>0.5899000801508573</v>
       </c>
       <c r="C209" t="n">
-        <v>0.6444088873739012</v>
+        <v>0.4100999198491427</v>
       </c>
       <c r="D209" t="n">
-        <v>0.6444088873739012</v>
+        <v>0.5899000801508573</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia</t>
+          <t>c__Actinomycetia</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia(reject)</t>
+          <t>c__Actinomycetia(reject)</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68189.fa</t>
+          <t>even_MAG-GUT89959.fa</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.9065148995753124</v>
+        <v>0.01691802539197351</v>
       </c>
       <c r="C210" t="n">
-        <v>0.09348510042468765</v>
+        <v>0.9830819746080265</v>
       </c>
       <c r="D210" t="n">
-        <v>0.9065148995753124</v>
+        <v>0.9830819746080265</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68190.fa</t>
+          <t>even_MAG-GUT90583.fa</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.9035063229959345</v>
+        <v>0.01882150040439001</v>
       </c>
       <c r="C211" t="n">
-        <v>0.09649367700406555</v>
+        <v>0.98117849959561</v>
       </c>
       <c r="D211" t="n">
-        <v>0.9035063229959345</v>
+        <v>0.98117849959561</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68197.fa</t>
+          <t>even_MAG-GUT91259.fa</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.6561557530916071</v>
+        <v>0.9911633020937867</v>
       </c>
       <c r="C212" t="n">
-        <v>0.3438442469083928</v>
+        <v>0.008836697906213291</v>
       </c>
       <c r="D212" t="n">
-        <v>0.6561557530916071</v>
+        <v>0.9911633020937867</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -5955,43 +5955,43 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68245.fa</t>
+          <t>even_MAG-GUT91633.fa</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.9884408823033559</v>
+        <v>0.3137469713425671</v>
       </c>
       <c r="C213" t="n">
-        <v>0.01155911769664407</v>
+        <v>0.6862530286574329</v>
       </c>
       <c r="D213" t="n">
-        <v>0.9884408823033559</v>
+        <v>0.6862530286574329</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia(reject)</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68475.fa</t>
+          <t>even_MAG-GUT92079.fa</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.7287685632564904</v>
+        <v>0.9827511805426656</v>
       </c>
       <c r="C214" t="n">
-        <v>0.2712314367435096</v>
+        <v>0.01724881945733441</v>
       </c>
       <c r="D214" t="n">
-        <v>0.7287685632564904</v>
+        <v>0.9827511805426656</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -6007,17 +6007,17 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68598.fa</t>
+          <t>even_MAG-GUT9228.fa</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.009808056819241351</v>
+        <v>0.000614809430206642</v>
       </c>
       <c r="C215" t="n">
-        <v>0.9901919431807586</v>
+        <v>0.9993851905697934</v>
       </c>
       <c r="D215" t="n">
-        <v>0.9901919431807586</v>
+        <v>0.9993851905697934</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -6033,43 +6033,43 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68642.fa</t>
+          <t>even_MAG-GUT9744.fa</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.8501197936308217</v>
+        <v>0.02408995373005585</v>
       </c>
       <c r="C216" t="n">
-        <v>0.1498802063691783</v>
+        <v>0.9759100462699442</v>
       </c>
       <c r="D216" t="n">
-        <v>0.8501197936308217</v>
+        <v>0.9759100462699442</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68659.fa</t>
+          <t>even_MAG-GUT9760.fa</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.4684637847199815</v>
+        <v>0.01177369561662178</v>
       </c>
       <c r="C217" t="n">
-        <v>0.5315362152800185</v>
+        <v>0.9882263043833782</v>
       </c>
       <c r="D217" t="n">
-        <v>0.5315362152800185</v>
+        <v>0.9882263043833782</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -6078,1177 +6078,33 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>c__Coriobacteriia(reject)</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68697.fa</t>
+          <t>even_MAG-GUT9970.fa</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.8091719791880454</v>
+        <v>0.01380936159794655</v>
       </c>
       <c r="C218" t="n">
-        <v>0.1908280208119547</v>
+        <v>0.9861906384020535</v>
       </c>
       <c r="D218" t="n">
-        <v>0.8091719791880454</v>
+        <v>0.9861906384020535</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT68968.fa</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
-        <v>0.690587071673889</v>
-      </c>
-      <c r="C219" t="n">
-        <v>0.309412928326111</v>
-      </c>
-      <c r="D219" t="n">
-        <v>0.690587071673889</v>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT69048.fa</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
-        <v>0.5129842737213539</v>
-      </c>
-      <c r="C220" t="n">
-        <v>0.4870157262786461</v>
-      </c>
-      <c r="D220" t="n">
-        <v>0.5129842737213539</v>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT69064.fa</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>0.6478137799402237</v>
-      </c>
-      <c r="C221" t="n">
-        <v>0.3521862200597763</v>
-      </c>
-      <c r="D221" t="n">
-        <v>0.6478137799402237</v>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT69117.fa</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
-        <v>0.8585970156454893</v>
-      </c>
-      <c r="C222" t="n">
-        <v>0.1414029843545107</v>
-      </c>
-      <c r="D222" t="n">
-        <v>0.8585970156454893</v>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT69121.fa</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
-        <v>0.8896390111615626</v>
-      </c>
-      <c r="C223" t="n">
-        <v>0.1103609888384374</v>
-      </c>
-      <c r="D223" t="n">
-        <v>0.8896390111615626</v>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT69224.fa</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
-        <v>0.9587845295771419</v>
-      </c>
-      <c r="C224" t="n">
-        <v>0.04121547042285807</v>
-      </c>
-      <c r="D224" t="n">
-        <v>0.9587845295771419</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT69229.fa</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
-        <v>0.8098234168621554</v>
-      </c>
-      <c r="C225" t="n">
-        <v>0.1901765831378446</v>
-      </c>
-      <c r="D225" t="n">
-        <v>0.8098234168621554</v>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT69253.fa</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
-        <v>0.7608479455366663</v>
-      </c>
-      <c r="C226" t="n">
-        <v>0.2391520544633337</v>
-      </c>
-      <c r="D226" t="n">
-        <v>0.7608479455366663</v>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT69434.fa</t>
-        </is>
-      </c>
-      <c r="B227" t="n">
-        <v>0.8103026246755043</v>
-      </c>
-      <c r="C227" t="n">
-        <v>0.1896973753244957</v>
-      </c>
-      <c r="D227" t="n">
-        <v>0.8103026246755043</v>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT69447.fa</t>
-        </is>
-      </c>
-      <c r="B228" t="n">
-        <v>0.7978236126930095</v>
-      </c>
-      <c r="C228" t="n">
-        <v>0.2021763873069906</v>
-      </c>
-      <c r="D228" t="n">
-        <v>0.7978236126930095</v>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT7042.fa</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
-        <v>0.8862312726746472</v>
-      </c>
-      <c r="C229" t="n">
-        <v>0.1137687273253528</v>
-      </c>
-      <c r="D229" t="n">
-        <v>0.8862312726746472</v>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT74324.fa</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>0.3204865030874169</v>
-      </c>
-      <c r="C230" t="n">
-        <v>0.6795134969125831</v>
-      </c>
-      <c r="D230" t="n">
-        <v>0.6795134969125831</v>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT74347.fa</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
-        <v>0.6510956246586915</v>
-      </c>
-      <c r="C231" t="n">
-        <v>0.3489043753413085</v>
-      </c>
-      <c r="D231" t="n">
-        <v>0.6510956246586915</v>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT7772.fa</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>0.5986666414193218</v>
-      </c>
-      <c r="C232" t="n">
-        <v>0.4013333585806782</v>
-      </c>
-      <c r="D232" t="n">
-        <v>0.5986666414193218</v>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80568.fa</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
-        <v>0.6626335784221082</v>
-      </c>
-      <c r="C233" t="n">
-        <v>0.3373664215778917</v>
-      </c>
-      <c r="D233" t="n">
-        <v>0.6626335784221082</v>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80819.fa</t>
-        </is>
-      </c>
-      <c r="B234" t="n">
-        <v>0.04518201717421033</v>
-      </c>
-      <c r="C234" t="n">
-        <v>0.9548179828257897</v>
-      </c>
-      <c r="D234" t="n">
-        <v>0.9548179828257897</v>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81204.fa</t>
-        </is>
-      </c>
-      <c r="B235" t="n">
-        <v>0.8711029495092613</v>
-      </c>
-      <c r="C235" t="n">
-        <v>0.1288970504907388</v>
-      </c>
-      <c r="D235" t="n">
-        <v>0.8711029495092613</v>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81959.fa</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
-        <v>0.2246200337301979</v>
-      </c>
-      <c r="C236" t="n">
-        <v>0.7753799662698021</v>
-      </c>
-      <c r="D236" t="n">
-        <v>0.7753799662698021</v>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82008.fa</t>
-        </is>
-      </c>
-      <c r="B237" t="n">
-        <v>0.02399038651143704</v>
-      </c>
-      <c r="C237" t="n">
-        <v>0.976009613488563</v>
-      </c>
-      <c r="D237" t="n">
-        <v>0.976009613488563</v>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85070.fa</t>
-        </is>
-      </c>
-      <c r="B238" t="n">
-        <v>0.5467503556949316</v>
-      </c>
-      <c r="C238" t="n">
-        <v>0.4532496443050685</v>
-      </c>
-      <c r="D238" t="n">
-        <v>0.5467503556949316</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85133.fa</t>
-        </is>
-      </c>
-      <c r="B239" t="n">
-        <v>0.002524910267905245</v>
-      </c>
-      <c r="C239" t="n">
-        <v>0.9974750897320948</v>
-      </c>
-      <c r="D239" t="n">
-        <v>0.9974750897320948</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86606.fa</t>
-        </is>
-      </c>
-      <c r="B240" t="n">
-        <v>0.5882239256132576</v>
-      </c>
-      <c r="C240" t="n">
-        <v>0.4117760743867424</v>
-      </c>
-      <c r="D240" t="n">
-        <v>0.5882239256132576</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT8776.fa</t>
-        </is>
-      </c>
-      <c r="B241" t="n">
-        <v>0.001975350842229107</v>
-      </c>
-      <c r="C241" t="n">
-        <v>0.9980246491577709</v>
-      </c>
-      <c r="D241" t="n">
-        <v>0.9980246491577709</v>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT88052.fa</t>
-        </is>
-      </c>
-      <c r="B242" t="n">
-        <v>0.5899000801508573</v>
-      </c>
-      <c r="C242" t="n">
-        <v>0.4100999198491427</v>
-      </c>
-      <c r="D242" t="n">
-        <v>0.5899000801508573</v>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT88444.fa</t>
-        </is>
-      </c>
-      <c r="B243" t="n">
-        <v>0.5615265012512296</v>
-      </c>
-      <c r="C243" t="n">
-        <v>0.4384734987487705</v>
-      </c>
-      <c r="D243" t="n">
-        <v>0.5615265012512296</v>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89959.fa</t>
-        </is>
-      </c>
-      <c r="B244" t="n">
-        <v>0.01691802539197351</v>
-      </c>
-      <c r="C244" t="n">
-        <v>0.9830819746080265</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.9830819746080265</v>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9016.fa</t>
-        </is>
-      </c>
-      <c r="B245" t="n">
-        <v>0.6872488829256501</v>
-      </c>
-      <c r="C245" t="n">
-        <v>0.3127511170743499</v>
-      </c>
-      <c r="D245" t="n">
-        <v>0.6872488829256501</v>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90583.fa</t>
-        </is>
-      </c>
-      <c r="B246" t="n">
-        <v>0.01882150040439001</v>
-      </c>
-      <c r="C246" t="n">
-        <v>0.98117849959561</v>
-      </c>
-      <c r="D246" t="n">
-        <v>0.98117849959561</v>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91259.fa</t>
-        </is>
-      </c>
-      <c r="B247" t="n">
-        <v>0.9911633020937867</v>
-      </c>
-      <c r="C247" t="n">
-        <v>0.008836697906213291</v>
-      </c>
-      <c r="D247" t="n">
-        <v>0.9911633020937867</v>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91528.fa</t>
-        </is>
-      </c>
-      <c r="B248" t="n">
-        <v>0.9926933932083555</v>
-      </c>
-      <c r="C248" t="n">
-        <v>0.007306606791644524</v>
-      </c>
-      <c r="D248" t="n">
-        <v>0.9926933932083555</v>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91549.fa</t>
-        </is>
-      </c>
-      <c r="B249" t="n">
-        <v>0.989904506861375</v>
-      </c>
-      <c r="C249" t="n">
-        <v>0.01009549313862506</v>
-      </c>
-      <c r="D249" t="n">
-        <v>0.989904506861375</v>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91633.fa</t>
-        </is>
-      </c>
-      <c r="B250" t="n">
-        <v>0.3137469713425671</v>
-      </c>
-      <c r="C250" t="n">
-        <v>0.6862530286574329</v>
-      </c>
-      <c r="D250" t="n">
-        <v>0.6862530286574329</v>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91733.fa</t>
-        </is>
-      </c>
-      <c r="B251" t="n">
-        <v>0.928722229622204</v>
-      </c>
-      <c r="C251" t="n">
-        <v>0.07127777037779602</v>
-      </c>
-      <c r="D251" t="n">
-        <v>0.928722229622204</v>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91735.fa</t>
-        </is>
-      </c>
-      <c r="B252" t="n">
-        <v>0.928722229622204</v>
-      </c>
-      <c r="C252" t="n">
-        <v>0.07127777037779602</v>
-      </c>
-      <c r="D252" t="n">
-        <v>0.928722229622204</v>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91835.fa</t>
-        </is>
-      </c>
-      <c r="B253" t="n">
-        <v>0.9901168981921793</v>
-      </c>
-      <c r="C253" t="n">
-        <v>0.009883101807820729</v>
-      </c>
-      <c r="D253" t="n">
-        <v>0.9901168981921793</v>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91865.fa</t>
-        </is>
-      </c>
-      <c r="B254" t="n">
-        <v>0.9952615745169621</v>
-      </c>
-      <c r="C254" t="n">
-        <v>0.004738425483037901</v>
-      </c>
-      <c r="D254" t="n">
-        <v>0.9952615745169621</v>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91947.fa</t>
-        </is>
-      </c>
-      <c r="B255" t="n">
-        <v>0.8903643332255939</v>
-      </c>
-      <c r="C255" t="n">
-        <v>0.109635666774406</v>
-      </c>
-      <c r="D255" t="n">
-        <v>0.8903643332255939</v>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT92065.fa</t>
-        </is>
-      </c>
-      <c r="B256" t="n">
-        <v>0.9361675568353534</v>
-      </c>
-      <c r="C256" t="n">
-        <v>0.06383244316464663</v>
-      </c>
-      <c r="D256" t="n">
-        <v>0.9361675568353534</v>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT92079.fa</t>
-        </is>
-      </c>
-      <c r="B257" t="n">
-        <v>0.9827511805426656</v>
-      </c>
-      <c r="C257" t="n">
-        <v>0.01724881945733441</v>
-      </c>
-      <c r="D257" t="n">
-        <v>0.9827511805426656</v>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT92127.fa</t>
-        </is>
-      </c>
-      <c r="B258" t="n">
-        <v>0.9784311652462818</v>
-      </c>
-      <c r="C258" t="n">
-        <v>0.02156883475371816</v>
-      </c>
-      <c r="D258" t="n">
-        <v>0.9784311652462818</v>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9228.fa</t>
-        </is>
-      </c>
-      <c r="B259" t="n">
-        <v>0.000614809430206642</v>
-      </c>
-      <c r="C259" t="n">
-        <v>0.9993851905697934</v>
-      </c>
-      <c r="D259" t="n">
-        <v>0.9993851905697934</v>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9523.fa</t>
-        </is>
-      </c>
-      <c r="B260" t="n">
-        <v>0.5748405248047364</v>
-      </c>
-      <c r="C260" t="n">
-        <v>0.4251594751952637</v>
-      </c>
-      <c r="D260" t="n">
-        <v>0.5748405248047364</v>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9760.fa</t>
-        </is>
-      </c>
-      <c r="B261" t="n">
-        <v>0.01177369561662178</v>
-      </c>
-      <c r="C261" t="n">
-        <v>0.9882263043833782</v>
-      </c>
-      <c r="D261" t="n">
-        <v>0.9882263043833782</v>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>c__Coriobacteriia</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT988.fa</t>
-        </is>
-      </c>
-      <c r="B262" t="n">
-        <v>0.9828437702185118</v>
-      </c>
-      <c r="C262" t="n">
-        <v>0.01715622978148823</v>
-      </c>
-      <c r="D262" t="n">
-        <v>0.9828437702185118</v>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>c__Actinomycetia</t>
+          <t>c__Coriobacteriia</t>
         </is>
       </c>
     </row>
